--- a/data/VIP.xlsx
+++ b/data/VIP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>VIP</t>
@@ -28021,7 +28021,7 @@
         <v>1.02662830867E11</v>
       </c>
       <c r="I12" s="25" t="n">
-        <v>6.9393616288E10</v>
+        <v>6.5393616288E10</v>
       </c>
       <c r="K12" s="25" t="n">
         <v>2.1042691077E10</v>
@@ -28117,7 +28117,7 @@
         <v>8.2500627776E10</v>
       </c>
       <c r="AP12" s="25" t="n">
-        <v>6.9393616288E10</v>
+        <v>6.5393616288E10</v>
       </c>
       <c r="AQ12" s="25" t="n">
         <v>6.7666423645E10</v>
@@ -28557,7 +28557,7 @@
         <v>7.42E10</v>
       </c>
       <c r="I16" s="25" t="n">
-        <v>5.55E10</v>
+        <v>5.15E10</v>
       </c>
       <c r="K16" s="25" t="n">
         <v>0.0</v>
@@ -28653,7 +28653,7 @@
         <v>5.702760274E10</v>
       </c>
       <c r="AP16" s="25" t="n">
-        <v>5.55E10</v>
+        <v>5.15E10</v>
       </c>
       <c r="AQ16" s="25" t="n">
         <v>3.95E10</v>
@@ -28691,7 +28691,7 @@
         <v>7.00749589041E11</v>
       </c>
       <c r="I17" s="25" t="n">
-        <v>7.91E11</v>
+        <v>7.95E11</v>
       </c>
       <c r="K17" s="25" t="n">
         <v>0.0</v>
@@ -28787,7 +28787,7 @@
         <v>7.46E11</v>
       </c>
       <c r="AP17" s="25" t="n">
-        <v>7.91E11</v>
+        <v>7.95E11</v>
       </c>
       <c r="AQ17" s="25" t="n">
         <v>8.5E11</v>
@@ -28959,7 +28959,7 @@
         <v>7.00749589041E11</v>
       </c>
       <c r="I19" s="25" t="n">
-        <v>7.91E11</v>
+        <v>7.95E11</v>
       </c>
       <c r="K19" s="25" t="n">
         <v>0.0</v>
@@ -29055,7 +29055,7 @@
         <v>7.46E11</v>
       </c>
       <c r="AP19" s="25" t="n">
-        <v>7.91E11</v>
+        <v>7.95E11</v>
       </c>
       <c r="AQ19" s="25" t="n">
         <v>8.5E11</v>
@@ -29093,7 +29093,7 @@
         <v>7.00749589041E11</v>
       </c>
       <c r="I20" s="25" t="n">
-        <v>7.91E11</v>
+        <v>7.95E11</v>
       </c>
       <c r="K20" s="25" t="n">
         <v>0.0</v>
@@ -29189,7 +29189,7 @@
         <v>7.46E11</v>
       </c>
       <c r="AP20" s="25" t="n">
-        <v>7.91E11</v>
+        <v>7.95E11</v>
       </c>
       <c r="AQ20" s="25" t="n">
         <v>8.5E11</v>
@@ -29629,7 +29629,7 @@
         <v>2.0949770384E10</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>2.0378242629E10</v>
+        <v>2.0762194847E10</v>
       </c>
       <c r="K24" s="25" t="n">
         <v>2.508220147E10</v>
@@ -29725,7 +29725,7 @@
         <v>1.8407100079E10</v>
       </c>
       <c r="AP24" s="25" t="n">
-        <v>2.0378242629E10</v>
+        <v>2.0762194847E10</v>
       </c>
       <c r="AQ24" s="25" t="n">
         <v>2.388223842E10</v>
@@ -30165,7 +30165,7 @@
         <v>2.0949770384E10</v>
       </c>
       <c r="I28" s="25" t="n">
-        <v>2.0378242629E10</v>
+        <v>2.0762194847E10</v>
       </c>
       <c r="K28" s="25" t="n">
         <v>2.508220147E10</v>
@@ -30261,7 +30261,7 @@
         <v>1.8407100079E10</v>
       </c>
       <c r="AP28" s="25" t="n">
-        <v>2.0378242629E10</v>
+        <v>2.0762194847E10</v>
       </c>
       <c r="AQ28" s="25" t="n">
         <v>2.388223842E10</v>
@@ -33247,7 +33247,7 @@
         <v>5.91734E9</v>
       </c>
       <c r="I51" s="25" t="n">
-        <v>3.521888644E9</v>
+        <v>3.427286644E9</v>
       </c>
       <c r="K51" s="25" t="n">
         <v>0.0</v>
@@ -33343,7 +33343,7 @@
         <v>1.21782728E9</v>
       </c>
       <c r="AP51" s="25" t="n">
-        <v>3.521888644E9</v>
+        <v>3.427286644E9</v>
       </c>
       <c r="AQ51" s="25" t="n">
         <v>0.0</v>
@@ -33381,7 +33381,7 @@
         <v>-4.390888111E9</v>
       </c>
       <c r="I52" s="25" t="n">
-        <v>-4.22078525E8</v>
+        <v>-3.27476525E8</v>
       </c>
       <c r="K52" s="25" t="n">
         <v>-2.78256762E8</v>
@@ -33477,7 +33477,7 @@
         <v>-4.22078525E8</v>
       </c>
       <c r="AP52" s="25" t="n">
-        <v>-4.22078525E8</v>
+        <v>-3.27476525E8</v>
       </c>
       <c r="AQ52" s="25" t="n">
         <v>0.0</v>
@@ -33783,7 +33783,7 @@
         <v>1.34715475769E11</v>
       </c>
       <c r="I55" s="25" t="n">
-        <v>1.06267119705E11</v>
+        <v>1.06172517705E11</v>
       </c>
       <c r="K55" s="25" t="n">
         <v>4.3385217463E10</v>
@@ -33879,7 +33879,7 @@
         <v>8.2879496569E10</v>
       </c>
       <c r="AP55" s="25" t="n">
-        <v>1.06267119705E11</v>
+        <v>1.06172517705E11</v>
       </c>
       <c r="AQ55" s="25" t="n">
         <v>2.3327668164E10</v>
@@ -33917,7 +33917,7 @@
         <v>-4.390888111E9</v>
       </c>
       <c r="I56" s="25" t="n">
-        <v>-4.22078525E8</v>
+        <v>-3.27476525E8</v>
       </c>
       <c r="K56" s="25" t="n">
         <v>-2.78256762E8</v>
@@ -34013,7 +34013,7 @@
         <v>-4.22078525E8</v>
       </c>
       <c r="AP56" s="25" t="n">
-        <v>-4.22078525E8</v>
+        <v>-3.27476525E8</v>
       </c>
       <c r="AQ56" s="25" t="n">
         <v>0.0</v>
@@ -38473,7 +38473,7 @@
         <v>5.200278036E9</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>1.3310823702E10</v>
+        <v>1.3386389863E10</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>7.804394633E9</v>
@@ -38569,7 +38569,7 @@
         <v>1.1241271662E10</v>
       </c>
       <c r="AP90" s="25" t="n">
-        <v>1.3310823702E10</v>
+        <v>1.3386389863E10</v>
       </c>
       <c r="AQ90" s="25" t="n">
         <v>9.742297797E9</v>
@@ -39009,7 +39009,7 @@
         <v>4.435094326E9</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>9.402436951E9</v>
+        <v>9.478003112E9</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>3.61961777E9</v>
@@ -39105,7 +39105,7 @@
         <v>7.681386681E9</v>
       </c>
       <c r="AP94" s="25" t="n">
-        <v>9.402436951E9</v>
+        <v>9.478003112E9</v>
       </c>
       <c r="AQ94" s="25" t="n">
         <v>6.662843583E9</v>
@@ -39813,7 +39813,7 @@
         <v>2.328830543E9</v>
       </c>
       <c r="I100" s="25" t="n">
-        <v>6.64048754E8</v>
+        <v>3.68739171E9</v>
       </c>
       <c r="K100" s="25" t="n">
         <v>5.125726519E9</v>
@@ -39909,7 +39909,7 @@
         <v>3.41833677E8</v>
       </c>
       <c r="AP100" s="25" t="n">
-        <v>6.64048754E8</v>
+        <v>3.68739171E9</v>
       </c>
       <c r="AQ100" s="25" t="n">
         <v>8.820344531E9</v>
@@ -40349,7 +40349,7 @@
         <v>2.328830543E9</v>
       </c>
       <c r="I104" s="25" t="n">
-        <v>6.64048754E8</v>
+        <v>3.68739171E9</v>
       </c>
       <c r="K104" s="25" t="n">
         <v>5.125726519E9</v>
@@ -40445,7 +40445,7 @@
         <v>3.41833677E8</v>
       </c>
       <c r="AP104" s="25" t="n">
-        <v>6.64048754E8</v>
+        <v>3.68739171E9</v>
       </c>
       <c r="AQ104" s="25" t="n">
         <v>8.820344531E9</v>
@@ -40483,7 +40483,7 @@
         <v>1.1524861565E10</v>
       </c>
       <c r="I105" s="25" t="n">
-        <v>8.97449393E9</v>
+        <v>9.013331345E9</v>
       </c>
       <c r="K105" s="25" t="n">
         <v>2.0357501737E10</v>
@@ -40579,7 +40579,7 @@
         <v>7.785035645E9</v>
       </c>
       <c r="AP105" s="25" t="n">
-        <v>8.97449393E9</v>
+        <v>9.013331345E9</v>
       </c>
       <c r="AQ105" s="25" t="n">
         <v>8.240781748E9</v>
@@ -40751,7 +40751,7 @@
         <v>5.520048531E9</v>
       </c>
       <c r="I107" s="25" t="n">
-        <v>1.293528625E9</v>
+        <v>2.686000496E9</v>
       </c>
       <c r="K107" s="25" t="n">
         <v>6.59183265E8</v>
@@ -40847,7 +40847,7 @@
         <v>1.20290748E9</v>
       </c>
       <c r="AP107" s="25" t="n">
-        <v>1.293528625E9</v>
+        <v>2.686000496E9</v>
       </c>
       <c r="AQ107" s="25" t="n">
         <v>1.694324314E9</v>
@@ -40885,7 +40885,7 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="25" t="n">
-        <v>4.34320011E8</v>
+        <v>0.0</v>
       </c>
       <c r="K108" s="25" t="n">
         <v>2.1639745E8</v>
@@ -40981,7 +40981,7 @@
         <v>1.33862981E8</v>
       </c>
       <c r="AP108" s="25" t="n">
-        <v>4.34320011E8</v>
+        <v>0.0</v>
       </c>
       <c r="AQ108" s="25" t="n">
         <v>1.64434E8</v>
@@ -41019,7 +41019,7 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="25" t="n">
-        <v>1.95904458E8</v>
+        <v>0.0</v>
       </c>
       <c r="K109" s="25" t="n">
         <v>6.2078196E7</v>
@@ -41115,7 +41115,7 @@
         <v>1.40838538E8</v>
       </c>
       <c r="AP109" s="25" t="n">
-        <v>1.95904458E8</v>
+        <v>0.0</v>
       </c>
       <c r="AQ109" s="25" t="n">
         <v>1.51897809E8</v>
@@ -41153,7 +41153,7 @@
         <v>0.0</v>
       </c>
       <c r="I110" s="25" t="n">
-        <v>6.5857204E7</v>
+        <v>0.0</v>
       </c>
       <c r="K110" s="25" t="n">
         <v>2.0009056E7</v>
@@ -41249,7 +41249,7 @@
         <v>2.7917437E7</v>
       </c>
       <c r="AP110" s="25" t="n">
-        <v>6.5857204E7</v>
+        <v>0.0</v>
       </c>
       <c r="AQ110" s="25" t="n">
         <v>5.884982E7</v>
@@ -41689,7 +41689,7 @@
         <v>6.004813034E9</v>
       </c>
       <c r="I114" s="25" t="n">
-        <v>6.984883632E9</v>
+        <v>6.327330849E9</v>
       </c>
       <c r="K114" s="25" t="n">
         <v>1.937983377E10</v>
@@ -41785,7 +41785,7 @@
         <v>6.279509209E9</v>
       </c>
       <c r="AP114" s="25" t="n">
-        <v>6.984883632E9</v>
+        <v>6.327330849E9</v>
       </c>
       <c r="AQ114" s="25" t="n">
         <v>6.171275805E9</v>
@@ -43029,7 +43029,7 @@
         <v>0.0</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>5.69810705098E11</v>
+        <v>0.0</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>1.78349234347E11</v>
@@ -43125,7 +43125,7 @@
         <v>0.0</v>
       </c>
       <c r="AP124" s="25" t="n">
-        <v>1.4591634883E11</v>
+        <v>0.0</v>
       </c>
       <c r="AQ124" s="25" t="n">
         <v>1.49250117371E11</v>
@@ -43163,7 +43163,7 @@
         <v>0.0</v>
       </c>
       <c r="I125" s="25" t="n">
-        <v>5.9464296899E10</v>
+        <v>0.0</v>
       </c>
       <c r="K125" s="25" t="n">
         <v>3.3148451956E10</v>
@@ -43259,7 +43259,7 @@
         <v>0.0</v>
       </c>
       <c r="AP125" s="25" t="n">
-        <v>1.9883890073E10</v>
+        <v>0.0</v>
       </c>
       <c r="AQ125" s="25" t="n">
         <v>1.7267610204E10</v>
@@ -43297,7 +43297,7 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="25" t="n">
-        <v>5.10346408199E11</v>
+        <v>0.0</v>
       </c>
       <c r="K126" s="25" t="n">
         <v>1.45200782391E11</v>
@@ -43393,7 +43393,7 @@
         <v>0.0</v>
       </c>
       <c r="AP126" s="25" t="n">
-        <v>1.26032458757E11</v>
+        <v>0.0</v>
       </c>
       <c r="AQ126" s="25" t="n">
         <v>1.31982507167E11</v>
@@ -44503,7 +44503,7 @@
         <v>0.0</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>4.22424375647E11</v>
+        <v>0.0</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>1.38950783308E11</v>
@@ -44599,7 +44599,7 @@
         <v>0.0</v>
       </c>
       <c r="AP135" s="25" t="n">
-        <v>1.03459798673E11</v>
+        <v>0.0</v>
       </c>
       <c r="AQ135" s="25" t="n">
         <v>1.09580279516E11</v>
@@ -44637,7 +44637,7 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="25" t="n">
-        <v>5.7693985938E10</v>
+        <v>0.0</v>
       </c>
       <c r="K136" s="25" t="n">
         <v>3.1064461103E10</v>
@@ -44733,7 +44733,7 @@
         <v>0.0</v>
       </c>
       <c r="AP136" s="25" t="n">
-        <v>1.9259769269E10</v>
+        <v>0.0</v>
       </c>
       <c r="AQ136" s="25" t="n">
         <v>1.6541574625E10</v>
@@ -44905,7 +44905,7 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>3.64730389709E11</v>
+        <v>0.0</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>1.07886322205E11</v>
@@ -45001,7 +45001,7 @@
         <v>0.0</v>
       </c>
       <c r="AP138" s="25" t="n">
-        <v>8.4200029404E10</v>
+        <v>0.0</v>
       </c>
       <c r="AQ138" s="25" t="n">
         <v>9.3038704891E10</v>
@@ -45709,7 +45709,7 @@
         <v>5.392334032E10</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>3.6855225592E10</v>
+        <v>3.6852376277E10</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>5.13711504E8</v>
@@ -45805,7 +45805,7 @@
         <v>8.220260104E9</v>
       </c>
       <c r="AP144" s="25" t="n">
-        <v>1.0555617005E10</v>
+        <v>1.055276769E10</v>
       </c>
       <c r="AQ144" s="25" t="n">
         <v>1.0271783601E10</v>
@@ -45843,7 +45843,7 @@
         <v>5.2388124547E10</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>3.4072109267E10</v>
+        <v>3.4069047259E10</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>4.6037498E8</v>
@@ -45939,7 +45939,7 @@
         <v>8.284258446E9</v>
       </c>
       <c r="AP145" s="25" t="n">
-        <v>9.256152831E9</v>
+        <v>9.253090823E9</v>
       </c>
       <c r="AQ145" s="25" t="n">
         <v>1.0145212291E10</v>
@@ -46513,7 +46513,7 @@
         <v>1.535215773E9</v>
       </c>
       <c r="I150" s="25" t="n">
-        <v>2.783116325E9</v>
+        <v>1.749435096E9</v>
       </c>
       <c r="K150" s="25" t="n">
         <v>0.0</v>
@@ -46609,7 +46609,7 @@
         <v>1.095709278E9</v>
       </c>
       <c r="AP150" s="25" t="n">
-        <v>1.299464174E9</v>
+        <v>2.65782945E8</v>
       </c>
       <c r="AQ150" s="25" t="n">
         <v>1.2657131E8</v>
@@ -46647,7 +46647,7 @@
         <v>0.0</v>
       </c>
       <c r="I151" s="25" t="n">
-        <v>0.0</v>
+        <v>1.033893922E9</v>
       </c>
       <c r="K151" s="25" t="n">
         <v>0.0</v>
@@ -46743,7 +46743,7 @@
         <v>-1.15970762E9</v>
       </c>
       <c r="AP151" s="25" t="n">
-        <v>0.0</v>
+        <v>1.033893922E9</v>
       </c>
       <c r="AQ151" s="25" t="n">
         <v>0.0</v>
@@ -47049,7 +47049,7 @@
         <v>4.12855787E8</v>
       </c>
       <c r="I154" s="25" t="n">
-        <v>1.628647103E9</v>
+        <v>0.0</v>
       </c>
       <c r="K154" s="25" t="n">
         <v>7.204017473E9</v>
@@ -47145,7 +47145,7 @@
         <v>9.07692064E8</v>
       </c>
       <c r="AP154" s="25" t="n">
-        <v>3.2816016E8</v>
+        <v>0.0</v>
       </c>
       <c r="AQ154" s="25" t="n">
         <v>2.5332599E7</v>
@@ -47719,7 +47719,7 @@
         <v>2.68692299E8</v>
       </c>
       <c r="I159" s="25" t="n">
-        <v>1.359564165E9</v>
+        <v>0.0</v>
       </c>
       <c r="K159" s="25" t="n">
         <v>0.0</v>
@@ -47815,7 +47815,7 @@
         <v>9.07692064E8</v>
       </c>
       <c r="AP159" s="25" t="n">
-        <v>3.72820594E8</v>
+        <v>0.0</v>
       </c>
       <c r="AQ159" s="25" t="n">
         <v>2.5332599E7</v>
@@ -47987,7 +47987,7 @@
         <v>3.4009071E7</v>
       </c>
       <c r="I161" s="25" t="n">
-        <v>2.69082938E8</v>
+        <v>0.0</v>
       </c>
       <c r="K161" s="25" t="n">
         <v>0.0</v>
@@ -48083,7 +48083,7 @@
         <v>0.0</v>
       </c>
       <c r="AP161" s="25" t="n">
-        <v>-4.4660434E7</v>
+        <v>0.0</v>
       </c>
       <c r="AQ161" s="25" t="n">
         <v>0.0</v>
@@ -48255,7 +48255,7 @@
         <v>4.95764302659E11</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>4.13108459438E11</v>
+        <v>4.99896201792E11</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>1.23751627469E11</v>
@@ -48351,7 +48351,7 @@
         <v>7.2306508632E10</v>
       </c>
       <c r="AP163" s="25" t="n">
-        <v>1.10225207436E11</v>
+        <v>1.9701294979E11</v>
       </c>
       <c r="AQ163" s="25" t="n">
         <v>1.10678612707E11</v>
@@ -48389,7 +48389,7 @@
         <v>1.25287397455E11</v>
       </c>
       <c r="I164" s="25" t="n">
-        <v>1.5788476286E10</v>
+        <v>4.7624880665E10</v>
       </c>
       <c r="K164" s="25" t="n">
         <v>4.55134251E9</v>
@@ -48485,7 +48485,7 @@
         <v>-3.1351550697E10</v>
       </c>
       <c r="AP164" s="25" t="n">
-        <v>3.998690258E9</v>
+        <v>3.5835094637E10</v>
       </c>
       <c r="AQ164" s="25" t="n">
         <v>3.908978052E9</v>
@@ -48523,7 +48523,7 @@
         <v>1.1635938659E11</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>1.32032969406E11</v>
+        <v>1.31262719636E11</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>2.8715414397E10</v>
@@ -48619,7 +48619,7 @@
         <v>3.6002326229E10</v>
       </c>
       <c r="AP165" s="25" t="n">
-        <v>3.3316781321E10</v>
+        <v>3.2546531551E10</v>
       </c>
       <c r="AQ165" s="25" t="n">
         <v>3.7671752421E10</v>
@@ -48657,7 +48657,7 @@
         <v>1.34798356461E11</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>1.06709023058E11</v>
+        <v>1.06812966394E11</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>4.4396864067E10</v>
@@ -48753,7 +48753,7 @@
         <v>2.336786234E10</v>
       </c>
       <c r="AP166" s="25" t="n">
-        <v>2.3513582191E10</v>
+        <v>2.3617525527E10</v>
       </c>
       <c r="AQ166" s="25" t="n">
         <v>2.346471028E10</v>
@@ -48791,7 +48791,7 @@
         <v>6.2941068582E10</v>
       </c>
       <c r="I167" s="25" t="n">
-        <v>1.431736159E11</v>
+        <v>1.22922885044E11</v>
       </c>
       <c r="K167" s="25" t="n">
         <v>4.2491693711E10</v>
@@ -48887,7 +48887,7 @@
         <v>6.0901976365E10</v>
       </c>
       <c r="AP167" s="25" t="n">
-        <v>4.5123504132E10</v>
+        <v>2.4872773276E10</v>
       </c>
       <c r="AQ167" s="25" t="n">
         <v>4.2584671639E10</v>
@@ -48925,7 +48925,7 @@
         <v>5.6378093571E10</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>1.5404374788E10</v>
+        <v>9.1272750053E10</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>3.596312784E9</v>
@@ -49021,7 +49021,7 @@
         <v>-1.6614105605E10</v>
       </c>
       <c r="AP168" s="25" t="n">
-        <v>4.272649534E9</v>
+        <v>8.0141024799E10</v>
       </c>
       <c r="AQ168" s="25" t="n">
         <v>3.048500315E9</v>

--- a/data/VIP.xlsx
+++ b/data/VIP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>VIP</t>

--- a/data/VIP.xlsx
+++ b/data/VIP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>VIP</t>

--- a/data/VIP.xlsx
+++ b/data/VIP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>VIP</t>
